--- a/Casos_Combinaciones_Pernos.xlsx
+++ b/Casos_Combinaciones_Pernos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Documents\Repositorios\Robotica-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naole\Downloads\rboooooo\Robotica-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{924FE476-E417-46D9-8F8A-403E78532CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F273C8-50FC-490D-8F2A-450582B128C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2776C83B-0625-4CDA-B8B2-054A15CA8883}"/>
   </bookViews>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8F442683-5DC8-4D91-89F7-36CDD1844830}</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{8F442683-5DC8-4D91-89F7-36CDD1844830}">
+      <text>
+        <t>[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Se estan probando con el rojo</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="16">
   <si>
     <t>First</t>
   </si>
@@ -51,18 +69,6 @@
   </si>
   <si>
     <t>1ra</t>
-  </si>
-  <si>
-    <t>verde</t>
-  </si>
-  <si>
-    <t>rojo</t>
-  </si>
-  <si>
-    <t>amarillo</t>
-  </si>
-  <si>
-    <t>azul</t>
   </si>
   <si>
     <t>2da</t>
@@ -80,23 +86,32 @@
     <t>6ta</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>G</t>
+    <t>R</t>
   </si>
   <si>
-    <t>R</t>
+    <t>listo</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +119,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +189,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,17 +219,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,6 +285,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="johaneris Avalos" id="{1554E87A-5DE1-4817-9E81-4FAAFE41DBD9}" userId="cc67b48cbbb67f25" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,39 +608,50 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E8" dT="2025-07-21T14:57:24.19" personId="{1554E87A-5DE1-4817-9E81-4FAAFE41DBD9}" id="{8F442683-5DC8-4D91-89F7-36CDD1844830}">
+    <text>Se estan probando con el rojo</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB649018-430E-41A0-A838-956B3F9B8B8C}">
-  <dimension ref="B1:P31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB649018-430E-41A0-A838-956B3F9B8B8C}">
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="7" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="J1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="N1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="N1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -581,6 +661,9 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,6 +673,9 @@
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,6 +685,9 @@
       <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,45 +698,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>1.3888888888888889E-3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1.3773148148148147E-3</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>5</v>
+      <c r="K4" s="4">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O4" s="4">
+        <v>9</v>
+      </c>
+      <c r="P4" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -661,65 +756,88 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>2</v>
@@ -727,8 +845,11 @@
       <c r="L8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="M8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>2</v>
@@ -737,48 +858,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>1.1689814814814816E-3</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>8</v>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>5</v>
+      <c r="K9" s="4">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O9" s="4">
+        <v>9</v>
+      </c>
+      <c r="P9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
+      <c r="E10" s="10">
+        <v>1.3194444444444445E-3</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -789,47 +916,64 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
+      <c r="G11" s="6">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>8</v>
+      <c r="K11" s="6">
+        <v>7</v>
+      </c>
+      <c r="L11" s="5">
+        <v>3</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="3">
+        <v>6</v>
+      </c>
+      <c r="P11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -837,8 +981,11 @@
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>2</v>
@@ -846,8 +993,11 @@
       <c r="H13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I13" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>2</v>
@@ -856,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>2</v>
@@ -865,45 +1015,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>1.3888888888888889E-3</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="10">
+        <v>7.7939814814814809E-2</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>5</v>
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O14" s="5">
+        <v>3</v>
+      </c>
+      <c r="P14" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -911,53 +1067,72 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
+      <c r="C16" s="6">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="4">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6">
         <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>6</v>
+      <c r="K16" s="6">
+        <v>7</v>
+      </c>
+      <c r="L16" s="4">
+        <v>9</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O16" s="4">
+        <v>9</v>
+      </c>
+      <c r="P16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -965,8 +1140,11 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E18" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>2</v>
@@ -974,8 +1152,11 @@
       <c r="H18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I18" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>2</v>
@@ -984,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>2</v>
@@ -993,45 +1174,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>1.3078703703703703E-3</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>8</v>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>5</v>
+      <c r="K19" s="5">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>6</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O19" s="5">
+        <v>3</v>
+      </c>
+      <c r="P19" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1045,47 +1229,64 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>6</v>
+      <c r="G21" s="6">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4">
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="K21" s="4">
+        <v>9</v>
+      </c>
+      <c r="L21" s="6">
         <v>7</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O21" s="3">
+        <v>6</v>
+      </c>
+      <c r="P21" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -1093,8 +1294,11 @@
       <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>2</v>
@@ -1102,8 +1306,11 @@
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I23" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>2</v>
@@ -1112,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>2</v>
@@ -1121,45 +1328,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>1.4004629629629629E-3</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
+      <c r="C24" s="6">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>8</v>
+      <c r="G24" s="6">
+        <v>7</v>
+      </c>
+      <c r="H24" s="5">
+        <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>5</v>
+      <c r="K24" s="6">
+        <v>7</v>
+      </c>
+      <c r="L24" s="3">
+        <v>6</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O24" s="3">
+        <v>6</v>
+      </c>
+      <c r="P24" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1173,47 +1383,64 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
+      <c r="C26" s="3">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>6</v>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4">
+        <v>9</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>8</v>
+      <c r="K26" s="4">
+        <v>9</v>
+      </c>
+      <c r="L26" s="5">
+        <v>3</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O26" s="5">
+        <v>3</v>
+      </c>
+      <c r="P26" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1221,8 +1448,11 @@
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>2</v>
@@ -1230,8 +1460,11 @@
       <c r="H28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I28" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>2</v>
@@ -1240,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>2</v>
@@ -1249,45 +1482,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>1.4120370370370369E-3</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
+      <c r="C29" s="6">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>8</v>
+      <c r="G29" s="6">
+        <v>7</v>
+      </c>
+      <c r="H29" s="5">
+        <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>5</v>
+      <c r="K29" s="6">
+        <v>7</v>
+      </c>
+      <c r="L29" s="3">
+        <v>6</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O29" s="3">
+        <v>6</v>
+      </c>
+      <c r="P29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1301,42 +1537,42 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>5</v>
+      <c r="G31" s="4">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>6</v>
+      <c r="K31" s="5">
+        <v>3</v>
+      </c>
+      <c r="L31" s="4">
+        <v>9</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>8</v>
+      <c r="O31" s="4">
+        <v>9</v>
+      </c>
+      <c r="P31" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1347,5 +1583,6 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>